--- a/first_pass/cor_and_elas.xlsx
+++ b/first_pass/cor_and_elas.xlsx
@@ -12,15 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Correlation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elasticity</t>
+    <t xml:space="preserve">cor_pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor_u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor_hpop_au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor_hu_apop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_hpop_au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_hu_apop</t>
   </si>
   <si>
     <t xml:space="preserve">Fishes farmed for food (excludes pre-slaughter mortality)</t>
@@ -419,214 +437,574 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.980416942250208</v>
+        <v>0.980497739996289</v>
       </c>
       <c r="C2" t="n">
-        <v>72.6876702440236</v>
+        <v>-0.992611820962461</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.980497739996289</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.992611820962461</v>
+      </c>
+      <c r="F2" t="n">
+        <v>72.7605174893603</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.21818714294494</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-325.342532431853</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.719724409065165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>0.859349148118656</v>
       </c>
       <c r="C3" t="n">
+        <v>0.87809297132292</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.859349148118657</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.87809297132292</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.0025324059871948</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000528308866632145</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0339950179721031</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0000393555472759345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.961990474878371</v>
+        <v>0.961512434334205</v>
       </c>
       <c r="C4" t="n">
-        <v>165.013133247436</v>
+        <v>-0.964298049394137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.961512434334205</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.964298049394137</v>
+      </c>
+      <c r="F4" t="n">
+        <v>165.125659441718</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-7.51069907488749</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-492.404716455204</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.51867842886905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>0.99683065791096</v>
       </c>
       <c r="C5" t="n">
+        <v>-0.923247559083164</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.99683065791096</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.923247559083164</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0246758021600474</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.0049577054181156</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.351950966208756</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.000347592050628591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>0.932004918123604</v>
       </c>
       <c r="C6" t="n">
+        <v>0.988362133289593</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.932004918123604</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.988362133289593</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.00467286261421808</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00101172999181164</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0627285077332635</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0000753672520717849</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>0.972734512073554</v>
       </c>
       <c r="C7" t="n">
+        <v>-0.879227490443099</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.972734512073554</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.879227490443099</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.100833563331446</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.0148862652633168</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.08287180332906</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.00138616147043698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.984639765438591</v>
+        <v>0.984642136927116</v>
       </c>
       <c r="C8" t="n">
-        <v>4.56329742726489</v>
+        <v>-0.978351445615786</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.984642136927116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.978351445615785</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.5624312378508</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.2552278277395</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-83.0623684477213</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0689468740047153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>0.977492989589391</v>
       </c>
       <c r="C9" t="n">
+        <v>-0.907240626421573</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.977492989589391</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.907240626421573</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.237891701894109</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.0625910899525393</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-4.4340634316043</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00335807124591123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>0.96814854935375</v>
       </c>
       <c r="C10" t="n">
+        <v>-0.919407980360862</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.96814854935375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.919407980360862</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.0827191441199558</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.0222687933376153</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.54180212725186</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00119474184975671</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>0.988118388573891</v>
       </c>
       <c r="C11" t="n">
+        <v>-0.969048089033012</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.988118388573891</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.969048089033012</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.160018184242517</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0200248569003066</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1.34255256579472</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00238675290826061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>-0.786854150725534</v>
       </c>
       <c r="C12" t="n">
+        <v>-0.866686440528616</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.786854150725534</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.866686440528616</v>
+      </c>
+      <c r="F12" t="n">
         <v>-0.00117829428950101</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.000264975214650977</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.0158174225422615</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.0000197389164668487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
         <v>-0.521314113797636</v>
       </c>
       <c r="C13" t="n">
+        <v>-0.771441745942273</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.521314113797635</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.771441745942273</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.000744595712456121</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.000224961346422722</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.00999545284401098</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.0000167581455916807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>-0.791108334577078</v>
       </c>
       <c r="C14" t="n">
+        <v>0.762191648964688</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.791108334577078</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.762191648964688</v>
+      </c>
+      <c r="F14" t="n">
         <v>-0.00941237094212926</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00154604869414981</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.175437181990347</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.0000829469764552718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>0.756731262913225</v>
       </c>
       <c r="C15" t="n">
+        <v>0.902980741126625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.756731262913225</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.902980741126625</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.000595849321275494</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.000145163348696003</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.00799868128880223</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0000108137178706796</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16" t="n">
         <v>-0.554778759879129</v>
       </c>
       <c r="C16" t="n">
+        <v>0.547686738389987</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.554778759879129</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.547686738389987</v>
+      </c>
+      <c r="F16" t="n">
         <v>-0.000790505604260078</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.000340311883907138</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.022665376685345</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.0000118691365760023</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17" t="n">
         <v>0.594930349296419</v>
       </c>
       <c r="C17" t="n">
+        <v>-0.346460674069261</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.59493034929642</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.346460674069261</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.0266691639068274</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.00554905448155974</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.62651199849919</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.000236210389986367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
         <v>0.71563302830281</v>
       </c>
       <c r="C18" t="n">
+        <v>-0.745349867615761</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.71563302830281</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.745349867615762</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.0371489452303116</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.00493719209566507</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.311679650482314</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.000588461513190116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
         <v>0.914184010459845</v>
       </c>
       <c r="C19" t="n">
+        <v>-0.74203106379922</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.914184010459845</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.74203106379922</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.098997871973135</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.0350408060040369</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-2.83846698521373</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00122212632547562</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20" t="n">
         <v>0.266151751307653</v>
       </c>
       <c r="C20" t="n">
+        <v>-0.0581638982207615</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.266151751307652</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0581638982207614</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.0108707642681428</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.000673455088109804</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.202620175193914</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0000361315031981223</v>
       </c>
     </row>
   </sheetData>
